--- a/plantIdentificationLog.xlsx
+++ b/plantIdentificationLog.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldy Sipahutar\Desktop\Semester 7\Sistem Berbasis Pengetahuan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldy Sipahutar\Desktop\Semester 7\Sistem Berbasis Pengetahuan\Matlab-Direct-Inverse-Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879E17F3-64D0-4DE2-BDFD-D84993C7D65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E2E108-1971-43B5-97BA-CAE7848FB788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12504"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>hiddenA</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Errors</t>
+  </si>
+  <si>
+    <t>Best</t>
   </si>
 </sst>
 </file>
@@ -63,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -71,16 +74,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,22 +360,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="true"/>
-    <col min="3" max="3" width="6.7109375" customWidth="true"/>
-    <col min="4" max="4" width="6.15625" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="7.7109375" customWidth="true"/>
+    <col min="1" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
@@ -410,7 +408,7 @@
         <v>1.7031505369457398</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8</v>
       </c>
@@ -427,7 +425,7 @@
         <v>2.6507129344601317E-2</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -444,7 +442,7 @@
         <v>2.3410385716705225E-2</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -461,7 +459,7 @@
         <v>2.2197068151360844E-2</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -478,7 +476,7 @@
         <v>1.9749807700482968E-2</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -495,7 +493,7 @@
         <v>1.534272862331432E-2</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -512,7 +510,7 @@
         <v>1.4036122516362789E-2</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>30</v>
       </c>
@@ -529,7 +527,7 @@
         <v>1.1990093541570533E-2</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -546,7 +544,7 @@
         <v>1.1627622001050773E-2</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -563,7 +561,7 @@
         <v>1.1357955357425203E-2</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -580,7 +578,7 @@
         <v>1.0770681385299683E-2</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -597,7 +595,7 @@
         <v>1.0445019629211518E-2</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15</v>
       </c>
@@ -614,7 +612,7 @@
         <v>8.8836679906176951E-3</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
@@ -631,7 +629,7 @@
         <v>8.7720926567135277E-3</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -648,7 +646,7 @@
         <v>8.2378504407423503E-3</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -665,7 +663,7 @@
         <v>7.6809057325018023E-3</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -682,7 +680,7 @@
         <v>7.6411578617016996E-3</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -699,7 +697,7 @@
         <v>7.2004351272395642E-3</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
@@ -716,7 +714,7 @@
         <v>7.0822927369772314E-3</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -733,7 +731,7 @@
         <v>7.0749909484811553E-3</v>
       </c>
     </row>
-    <row r="22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
@@ -750,7 +748,7 @@
         <v>6.4478875031834006E-3</v>
       </c>
     </row>
-    <row r="23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -767,7 +765,7 @@
         <v>6.4416198976089628E-3</v>
       </c>
     </row>
-    <row r="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8</v>
       </c>
@@ -784,7 +782,7 @@
         <v>6.0238917774355803E-3</v>
       </c>
     </row>
-    <row r="25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -801,7 +799,7 @@
         <v>5.9507310220845632E-3</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -818,7 +816,7 @@
         <v>5.7387229290541929E-3</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -835,7 +833,7 @@
         <v>4.4168485317627832E-3</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8</v>
       </c>
@@ -852,7 +850,7 @@
         <v>1.6541110694994416E-3</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8</v>
       </c>
@@ -868,8 +866,11 @@
       <c r="E29">
         <v>1.502199839006923E-3</v>
       </c>
-    </row>
-    <row r="30" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>8</v>
       </c>
@@ -886,7 +887,7 @@
         <v>6.9370195664042213E-3</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>8</v>
       </c>
@@ -903,7 +904,7 @@
         <v>5.2350997906063677E-3</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8</v>
       </c>
@@ -911,18 +912,52 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D32">
         <v>250</v>
       </c>
       <c r="E32">
-        <v>0.0051250072683828437</v>
+        <v>5.1250072683828437E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>0.4</v>
+      </c>
+      <c r="D33">
+        <v>250</v>
+      </c>
+      <c r="E33">
+        <v>3.9859922565629296E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0.4</v>
+      </c>
+      <c r="D34">
+        <v>250</v>
+      </c>
+      <c r="E34">
+        <v>4.0578318038620607E-3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E29">
-    <sortCondition descending="true" ref="E1:E29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E29">
+    <sortCondition descending="1" ref="E1:E29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
